--- a/execution/RetroPE/DJ.xlsx
+++ b/execution/RetroPE/DJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carette/research-repos/Theseus/execution/RetroPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8103ED81-5E52-D84F-979D-9371C491B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2986244-035D-864D-9881-325F46CE33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10240" yWindow="1000" windowWidth="18180" windowHeight="16440" xr2:uid="{7955564F-C61D-284E-9FC7-8ED54B9D9B74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>kind</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>bal1</t>
+  </si>
+  <si>
+    <t>bal4</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C075C9-91FC-154A-9140-631FCC6663F8}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +538,57 @@
         <v>60.25</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>54.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/execution/RetroPE/DJ.xlsx
+++ b/execution/RetroPE/DJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carette/research-repos/Theseus/execution/RetroPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2986244-035D-864D-9881-325F46CE33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC14B92-8580-1F4E-A5FD-CC7A9B9D62E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10240" yWindow="1000" windowWidth="18180" windowHeight="16440" xr2:uid="{7955564F-C61D-284E-9FC7-8ED54B9D9B74}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/execution/RetroPE/DJ.xlsx
+++ b/execution/RetroPE/DJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carette/research-repos/Theseus/execution/RetroPE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Desktop/research/Theseus/execution/RetroPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC14B92-8580-1F4E-A5FD-CC7A9B9D62E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F978ED9C-1FB7-DF42-83C0-1B77DC8BAF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="1000" windowWidth="18180" windowHeight="16440" xr2:uid="{7955564F-C61D-284E-9FC7-8ED54B9D9B74}"/>
+    <workbookView xWindow="5820" yWindow="820" windowWidth="22600" windowHeight="16440" xr2:uid="{7955564F-C61D-284E-9FC7-8ED54B9D9B74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>kind</t>
   </si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>bal4</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -112,6 +112,1190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DJ with bitmaps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bal2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC3B-BD42-87DA-7565F2C5E484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bal1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC3B-BD42-87DA-7565F2C5E484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bal4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC3B-BD42-87DA-7565F2C5E484}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1125617919"/>
+        <c:axId val="1240519679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1125617919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240519679"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1240519679"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125617919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A34C6DEF-E2FB-5E5C-C03D-24D477775430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,15 +1595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C075C9-91FC-154A-9140-631FCC6663F8}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -432,8 +1616,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -446,48 +1642,120 @@
       <c r="D2">
         <v>0.03</v>
       </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.02</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
         <v>0.14000000000000001</v>
       </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.13</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
         <v>0.67</v>
       </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0.67</v>
+      </c>
+      <c r="H4">
+        <v>0.62</v>
+      </c>
+      <c r="I4">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>13</v>
       </c>
       <c r="D5">
         <v>3.25</v>
       </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>3.25</v>
+      </c>
+      <c r="H5">
+        <v>2.7</v>
+      </c>
+      <c r="I5">
+        <v>2.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
         <v>11.23</v>
       </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>11.23</v>
+      </c>
+      <c r="H6">
+        <v>13.42</v>
+      </c>
+      <c r="I6">
+        <v>11.39</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
         <v>55.63</v>
       </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>55.63</v>
+      </c>
+      <c r="H7">
+        <v>60.25</v>
+      </c>
+      <c r="I7">
+        <v>54.75</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -498,7 +1766,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>11</v>
       </c>
@@ -506,7 +1774,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>12</v>
       </c>
@@ -514,7 +1782,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>13</v>
       </c>
@@ -522,7 +1790,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>14</v>
       </c>
@@ -530,7 +1798,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>15</v>
       </c>
@@ -538,7 +1806,7 @@
         <v>60.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -549,7 +1817,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>11</v>
       </c>
@@ -557,7 +1825,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>12</v>
       </c>
@@ -591,5 +1859,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>